--- a/Project1/Histograms.xlsx
+++ b/Project1/Histograms.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\2022Fall DIP (English)\Projects\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\電機大三上\影像處理\Digital-Image-Processing\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2321FC29-EBFF-4B39-9153-2418AEFDA287}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histograms" sheetId="1" r:id="rId1"/>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,7 +255,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +267,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,11 +550,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="L250" sqref="L250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -559,7 +563,7 @@
     <col min="2" max="5" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,1281 +583,4353 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2.4691358024691299E-6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.4691358024691299E-6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>3.7037037037036999E-6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3.7037037037036999E-6</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.9166666666666594E-5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1.2345679012345601E-6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1.11111111111111E-5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.9583333333333297E-5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2.4691358024691299E-6</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9.8765432098765399E-6</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="C6">
+        <v>3.14583333333333E-4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.4074074074073999E-6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.32098765432098E-5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="4">
+        <v>8.3333333333333303E-6</v>
+      </c>
+      <c r="C7">
+        <v>1.7708333333333299E-4</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.8765432098765399E-6</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="4">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="C8">
+        <v>1.3791666666666601E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1.48148148148148E-5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.7037037037037003E-5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2.2666666666666599E-3</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>2.1234567901234501E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="4">
+        <v>1.04166666666666E-5</v>
+      </c>
+      <c r="C10">
+        <v>1.1604166666666601E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.48148148148148E-5</v>
+      </c>
+      <c r="E10">
+        <v>1.38271604938271E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11" s="4">
+        <v>2.7083333333333302E-5</v>
+      </c>
+      <c r="C11">
+        <v>4.8604166666666596E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1.3580246913580199E-5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12" s="4">
+        <v>2.9166666666666599E-5</v>
+      </c>
+      <c r="C12">
+        <v>2.3541666666666598E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3.7037037037037003E-5</v>
+      </c>
+      <c r="E12">
+        <v>6.3209876543209801E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13" s="4">
+        <v>3.9583333333333297E-5</v>
+      </c>
+      <c r="C13">
+        <v>9.3770833333333293E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>5.5555555555555497E-5</v>
+      </c>
+      <c r="E13">
+        <v>3.2716049382716E-4</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14" s="4">
+        <v>6.6666666666666602E-5</v>
+      </c>
+      <c r="C14">
+        <v>3.99791666666666E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>5.6790123456790103E-5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.125E-4</v>
+      </c>
+      <c r="C15">
+        <v>1.4874999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <v>1E-4</v>
+      </c>
+      <c r="E15">
+        <v>1.5802469135802401E-3</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1.3541666666666601E-4</v>
+      </c>
+      <c r="C16">
+        <v>5.7770833333333303E-3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>7.5308641975308595E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>2.1008333333333299E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.38271604938271E-4</v>
+      </c>
+      <c r="E17">
+        <v>3.2456790123456701E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1.7708333333333299E-4</v>
+      </c>
+      <c r="C18">
+        <v>7.8041666666666598E-3</v>
+      </c>
+      <c r="D18">
+        <v>1.7037037037036999E-4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>2.22916666666666E-4</v>
+      </c>
+      <c r="C19">
+        <v>2.3962500000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.92592592592592E-4</v>
+      </c>
+      <c r="E19">
+        <v>1.4901234567901199E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>2.5833333333333302E-4</v>
+      </c>
+      <c r="C20">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="D20">
+        <v>2.6913580246913502E-4</v>
+      </c>
+      <c r="E20">
+        <v>5.9839506172839497E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>3.7291666666666598E-4</v>
+      </c>
+      <c r="C21">
+        <v>2.5708333333333298E-2</v>
+      </c>
+      <c r="D21">
+        <v>3.2716049382716E-4</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="C22">
+        <v>8.5520833333333299E-3</v>
+      </c>
+      <c r="D22">
+        <v>4.0493827160493801E-4</v>
+      </c>
+      <c r="E22">
+        <v>2.5246913580246901E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>6.1458333333333298E-4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8.7419753086419704E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>7.2708333333333305E-4</v>
+      </c>
+      <c r="C24">
+        <v>2.5504166666666599E-2</v>
+      </c>
+      <c r="D24">
+        <v>5.5802469135802395E-4</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7.9124999999999994E-3</v>
+      </c>
+      <c r="D25">
+        <v>6.1728395061728296E-4</v>
+      </c>
+      <c r="E25">
+        <v>3.3851851851851799E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>9.2500000000000004E-4</v>
+      </c>
+      <c r="C26">
+        <v>2.2579166666666602E-2</v>
+      </c>
+      <c r="D26">
+        <v>7.5308641975308595E-4</v>
+      </c>
+      <c r="E26">
+        <v>1.15765432098765E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>1.1604166666666601E-3</v>
+      </c>
+      <c r="C27">
+        <v>6.9479166666666604E-3</v>
+      </c>
+      <c r="D27">
+        <v>9.3580246913580205E-4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>1.3583333333333301E-3</v>
+      </c>
+      <c r="C28">
+        <v>1.9727083333333301E-2</v>
+      </c>
+      <c r="D28">
+        <v>1.0493827160493799E-3</v>
+      </c>
+      <c r="E28">
+        <v>4.1061728395061703E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>1.58125E-3</v>
+      </c>
+      <c r="C29">
+        <v>6.2916666666666598E-3</v>
+      </c>
+      <c r="D29">
+        <v>1.26049382716049E-3</v>
+      </c>
+      <c r="E29">
+        <v>1.32061728395061E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>1.92083333333333E-3</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>2.3541666666666598E-3</v>
+      </c>
+      <c r="C31">
+        <v>1.81645833333333E-2</v>
+      </c>
+      <c r="D31">
+        <v>1.49135802469135E-3</v>
+      </c>
+      <c r="E31">
+        <v>4.7790123456790097E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>6.0291666666666601E-3</v>
+      </c>
+      <c r="D32">
+        <v>1.7123456790123399E-3</v>
+      </c>
+      <c r="E32">
+        <v>1.44469135802469E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>2.7499999999999998E-3</v>
+      </c>
+      <c r="C33">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="D33">
+        <v>1.9679012345679E-3</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>3.0374999999999998E-3</v>
+      </c>
+      <c r="C34">
+        <v>6.2333333333333303E-3</v>
+      </c>
+      <c r="D34">
+        <v>2.3197530864197502E-3</v>
+      </c>
+      <c r="E34">
+        <v>4.8555555555555496E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>3.6062500000000001E-3</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2.5444444444444399E-3</v>
+      </c>
+      <c r="E35">
+        <v>1.5511111111111101E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>4.0124999999999996E-3</v>
+      </c>
+      <c r="C36">
+        <v>1.9637499999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>2.6987654320987601E-3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>4.5937499999999997E-3</v>
+      </c>
+      <c r="C37">
+        <v>6.6895833333333304E-3</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>5.2148148148148101E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>4.90416666666666E-3</v>
+      </c>
+      <c r="C38">
+        <v>2.0795833333333302E-2</v>
+      </c>
+      <c r="D38">
+        <v>3.0086419753086401E-3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>5.6249999999999998E-3</v>
+      </c>
+      <c r="C39">
+        <v>7.1083333333333302E-3</v>
+      </c>
+      <c r="D39">
+        <v>3.3370370370370299E-3</v>
+      </c>
+      <c r="E39">
+        <v>1.6795061728395001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3.6086419753086399E-3</v>
+      </c>
+      <c r="E40">
+        <v>5.8098765432098697E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>6.0124999999999996E-3</v>
+      </c>
+      <c r="C41">
+        <v>2.1545833333333299E-2</v>
+      </c>
+      <c r="D41">
+        <v>3.9259259259259204E-3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>6.9666666666666601E-3</v>
+      </c>
+      <c r="C42">
+        <v>7.4625000000000004E-3</v>
+      </c>
+      <c r="D42">
+        <v>4.4444444444444401E-3</v>
+      </c>
+      <c r="E42">
+        <v>1.8156790123456699E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>7.7208333333333304E-3</v>
+      </c>
+      <c r="C43">
+        <v>2.3060416666666601E-2</v>
+      </c>
+      <c r="D43">
+        <v>4.74444444444444E-3</v>
+      </c>
+      <c r="E43">
+        <v>5.9851851851851802E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>8.1937499999999996E-3</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>8.9791666666666596E-3</v>
+      </c>
+      <c r="C45">
+        <v>8.0874999999999992E-3</v>
+      </c>
+      <c r="D45">
+        <v>4.9407407407407403E-3</v>
+      </c>
+      <c r="E45">
+        <v>1.87098765432098E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>9.3291666666666592E-3</v>
+      </c>
+      <c r="C46">
+        <v>2.4375000000000001E-2</v>
+      </c>
+      <c r="D46">
+        <v>5.3407407407407397E-3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>1.0079166666666599E-2</v>
+      </c>
+      <c r="C47">
+        <v>8.1375000000000006E-3</v>
+      </c>
+      <c r="D47">
+        <v>5.7580246913580199E-3</v>
+      </c>
+      <c r="E47">
+        <v>6.4518518518518501E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>5.8160493827160396E-3</v>
+      </c>
+      <c r="E48">
+        <v>1.9804938271604899E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>1.044375E-2</v>
+      </c>
+      <c r="C49">
+        <v>2.4747916666666599E-2</v>
+      </c>
+      <c r="D49">
+        <v>6.33827160493827E-3</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>1.1031249999999999E-2</v>
+      </c>
+      <c r="C50">
+        <v>8.22083333333333E-3</v>
+      </c>
+      <c r="D50">
+        <v>6.6654320987654296E-3</v>
+      </c>
+      <c r="E50">
+        <v>6.7814814814814803E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>1.13479166666666E-2</v>
+      </c>
+      <c r="C51">
+        <v>2.43916666666666E-2</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>1.18125E-2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>6.8024691358024598E-3</v>
+      </c>
+      <c r="E52">
+        <v>2.0760493827160401E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>1.2222916666666601E-2</v>
+      </c>
+      <c r="C53">
+        <v>8.1437499999999999E-3</v>
+      </c>
+      <c r="D53">
+        <v>7.0271604938271599E-3</v>
+      </c>
+      <c r="E53">
+        <v>7.0530864197530796E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>1.2312500000000001E-2</v>
+      </c>
+      <c r="C54">
+        <v>2.3337500000000001E-2</v>
+      </c>
+      <c r="D54">
+        <v>7.2098765432098699E-3</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>1.30958333333333E-2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>7.6543209876543204E-3</v>
+      </c>
+      <c r="E55">
+        <v>2.1798765432098698E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>7.7604166666666603E-3</v>
+      </c>
+      <c r="D56">
+        <v>7.9209876543209802E-3</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <v>1.2927083333333299E-2</v>
+      </c>
+      <c r="C57">
+        <v>2.16270833333333E-2</v>
+      </c>
+      <c r="D57">
+        <v>7.8901234567901202E-3</v>
+      </c>
+      <c r="E57">
+        <v>7.5629629629629597E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <v>1.31708333333333E-2</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>2.2872839506172801E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <v>1.323125E-2</v>
+      </c>
+      <c r="C59">
+        <v>7.03958333333333E-3</v>
+      </c>
+      <c r="D59">
+        <v>8.0259259259259207E-3</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <v>1.33791666666666E-2</v>
+      </c>
+      <c r="C60">
+        <v>2.0091666666666601E-2</v>
+      </c>
+      <c r="D60">
+        <v>8.4567901234567904E-3</v>
+      </c>
+      <c r="E60">
+        <v>7.7246913580246903E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <v>1.3247916666666601E-2</v>
+      </c>
+      <c r="C61">
+        <v>6.3479166666666597E-3</v>
+      </c>
+      <c r="D61">
+        <v>8.2777777777777693E-3</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <v>1.2968749999999999E-2</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>8.6876543209876492E-3</v>
+      </c>
+      <c r="E62">
+        <v>2.3553086419753001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="D63">
+        <v>8.5987654320987608E-3</v>
+      </c>
+      <c r="E63">
+        <v>8.0049382716049292E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>1.27770833333333E-2</v>
+      </c>
+      <c r="C64">
+        <v>6.1145833333333304E-3</v>
+      </c>
+      <c r="D64">
+        <v>8.9716049382716004E-3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>1.275625E-2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>2.4238271604938199E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>1.27333333333333E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.770625E-2</v>
+      </c>
+      <c r="D66">
+        <v>8.8283950617283908E-3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>1.189375E-2</v>
+      </c>
+      <c r="C67">
+        <v>5.5520833333333299E-3</v>
+      </c>
+      <c r="D67">
+        <v>9.0493827160493794E-3</v>
+      </c>
+      <c r="E67">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>1.12729166666666E-2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>8.8518518518518503E-3</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <v>1.1093749999999999E-2</v>
+      </c>
+      <c r="C69">
+        <v>1.6979166666666601E-2</v>
+      </c>
+      <c r="D69">
+        <v>9.2395061728394994E-3</v>
+      </c>
+      <c r="E69">
+        <v>2.3835802469135799E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>1.0783333333333299E-2</v>
+      </c>
+      <c r="C70">
+        <v>5.4104166666666597E-3</v>
+      </c>
+      <c r="D70">
+        <v>8.8234567901234497E-3</v>
+      </c>
+      <c r="E70">
+        <v>7.8543209876543191E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>9.1654320987654293E-3</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>1.03083333333333E-2</v>
+      </c>
+      <c r="C72">
+        <v>1.57916666666666E-2</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>2.3377777777777699E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <v>1.00916666666666E-2</v>
+      </c>
+      <c r="C73">
+        <v>5.3208333333333302E-3</v>
+      </c>
+      <c r="D73">
+        <v>9.1641975308641901E-3</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <v>9.7145833333333303E-3</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>9.0283950617283896E-3</v>
+      </c>
+      <c r="E74">
+        <v>7.68641975308641E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <v>9.1958333333333302E-3</v>
+      </c>
+      <c r="C75">
+        <v>1.54875E-2</v>
+      </c>
+      <c r="D75">
+        <v>9.2629629629629607E-3</v>
+      </c>
+      <c r="E75">
+        <v>2.28691358024691E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <v>8.9499999999999996E-3</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>9.1975308641975301E-3</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <v>8.5458333333333306E-3</v>
+      </c>
+      <c r="C77">
+        <v>5.0062500000000003E-3</v>
+      </c>
+      <c r="D77">
+        <v>9.2543209876543193E-3</v>
+      </c>
+      <c r="E77">
+        <v>7.5814814814814798E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>8.1541666666666603E-3</v>
+      </c>
+      <c r="C78">
+        <v>1.44666666666666E-2</v>
+      </c>
+      <c r="D78">
+        <v>9.0567901234567903E-3</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>2.2370370370370301E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <v>7.8354166666666607E-3</v>
+      </c>
+      <c r="C80">
+        <v>4.7833333333333304E-3</v>
+      </c>
+      <c r="D80">
+        <v>9.0580246913580208E-3</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <v>7.5166666666666602E-3</v>
+      </c>
+      <c r="C81">
+        <v>1.4233333333333299E-2</v>
+      </c>
+      <c r="D81">
+        <v>9.05925925925926E-3</v>
+      </c>
+      <c r="E81">
+        <v>7.5641975308641902E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <v>7.1062499999999997E-3</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>9.2271604938271596E-3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <v>6.7541666666666601E-3</v>
+      </c>
+      <c r="C83">
+        <v>4.7895833333333297E-3</v>
+      </c>
+      <c r="D83">
+        <v>9.0851851851851805E-3</v>
+      </c>
+      <c r="E83">
+        <v>2.2055555555555498E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <v>6.6291666666666599E-3</v>
+      </c>
+      <c r="C84">
+        <v>1.353125E-2</v>
+      </c>
+      <c r="D84">
+        <v>9.1246913580246905E-3</v>
+      </c>
+      <c r="E84">
+        <v>7.5345679012345599E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <v>6.5812500000000003E-3</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>9.2259259259259204E-3</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>4.4979166666666596E-3</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>2.2090123456790099E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <v>6.4666666666666596E-3</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>9.1185185185185102E-3</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B88">
+        <v>6.2083333333333296E-3</v>
+      </c>
+      <c r="C88">
+        <v>1.32020833333333E-2</v>
+      </c>
+      <c r="D88">
+        <v>8.8950617283950605E-3</v>
+      </c>
+      <c r="E88">
+        <v>7.4938271604938203E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B89">
+        <v>5.9395833333333297E-3</v>
+      </c>
+      <c r="C89">
+        <v>4.3520833333333302E-3</v>
+      </c>
+      <c r="D89">
+        <v>8.9641975308641896E-3</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B90">
+        <v>6.0104166666666596E-3</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>8.9185185185185097E-3</v>
+      </c>
+      <c r="E90">
+        <v>2.20049382716049E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B91">
+        <v>6.05416666666666E-3</v>
+      </c>
+      <c r="C91">
+        <v>1.2327083333333299E-2</v>
+      </c>
+      <c r="D91">
+        <v>8.8691358024691296E-3</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B92">
+        <v>5.8291666666666596E-3</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>8.8592592592592594E-3</v>
+      </c>
+      <c r="E92">
+        <v>7.3419753086419702E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B93">
+        <v>5.8916666666666596E-3</v>
+      </c>
+      <c r="C93">
+        <v>4.05625E-3</v>
+      </c>
+      <c r="D93">
+        <v>9.01975308641975E-3</v>
+      </c>
+      <c r="E93">
+        <v>2.2307407407407401E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>1.16395833333333E-2</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B95">
+        <v>6.1145833333333304E-3</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>8.7456790123456793E-3</v>
+      </c>
+      <c r="E95">
+        <v>7.2975308641975304E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B96">
+        <v>6.2958333333333304E-3</v>
+      </c>
+      <c r="C96">
+        <v>3.9729166666666602E-3</v>
+      </c>
+      <c r="D96">
+        <v>8.9123456790123397E-3</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B97">
+        <v>6.0666666666666603E-3</v>
+      </c>
+      <c r="C97">
+        <v>1.13916666666666E-2</v>
+      </c>
+      <c r="D97">
+        <v>8.8395061728395001E-3</v>
+      </c>
+      <c r="E97">
+        <v>2.1899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B98">
+        <v>6.2125000000000001E-3</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>8.9111111111111092E-3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B99">
+        <v>6.4291666666666603E-3</v>
+      </c>
+      <c r="C99">
+        <v>3.4937499999999999E-3</v>
+      </c>
+      <c r="D99">
+        <v>8.7395061728395007E-3</v>
+      </c>
+      <c r="E99">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B100">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>8.7913580246913505E-3</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B101">
+        <v>6.3354166666666602E-3</v>
+      </c>
+      <c r="C101">
+        <v>1.031875E-2</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>2.1695061728394999E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>8.5555555555555506E-3</v>
+      </c>
+      <c r="E102">
+        <v>6.98024691358024E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B103">
+        <v>6.5291666666666597E-3</v>
+      </c>
+      <c r="C103">
+        <v>3.2583333333333301E-3</v>
+      </c>
+      <c r="D103">
+        <v>8.6320987654320992E-3</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B104">
+        <v>6.6208333333333301E-3</v>
+      </c>
+      <c r="C104">
+        <v>9.9041666666666601E-3</v>
+      </c>
+      <c r="D104">
+        <v>8.6061728395061699E-3</v>
+      </c>
+      <c r="E104">
+        <v>2.0974074074073999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B105">
+        <v>6.7166666666666599E-3</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B106">
+        <v>6.7958333333333299E-3</v>
+      </c>
+      <c r="C106">
+        <v>3.22291666666666E-3</v>
+      </c>
+      <c r="D106">
+        <v>8.4098765432098696E-3</v>
+      </c>
+      <c r="E106">
+        <v>7.0814814814814803E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B107">
+        <v>6.8291666666666596E-3</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>8.4234567901234503E-3</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B108">
+        <v>6.84375E-3</v>
+      </c>
+      <c r="C108">
+        <v>9.7041666666666596E-3</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>2.0585185185185099E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B109">
+        <v>7.1145833333333304E-3</v>
+      </c>
+      <c r="C109">
+        <v>3.19375E-3</v>
+      </c>
+      <c r="D109">
+        <v>8.0382716049382692E-3</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>8.1814814814814805E-3</v>
+      </c>
+      <c r="E110">
+        <v>6.8358024691357998E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B111">
+        <v>6.87291666666666E-3</v>
+      </c>
+      <c r="C111">
+        <v>9.2416666666666602E-3</v>
+      </c>
+      <c r="D111">
+        <v>8.14691358024691E-3</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B112">
+        <v>6.9895833333333303E-3</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>7.8851851851851808E-3</v>
+      </c>
+      <c r="E112">
+        <v>2.0658024691357999E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B113">
+        <v>7.02291666666666E-3</v>
+      </c>
+      <c r="C113">
+        <v>3.2020833333333298E-3</v>
+      </c>
+      <c r="D113">
+        <v>7.8358024691358007E-3</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B114">
+        <v>7.3041666666666602E-3</v>
+      </c>
+      <c r="C114">
+        <v>9.6749999999999996E-3</v>
+      </c>
+      <c r="D114">
+        <v>7.7753086419753E-3</v>
+      </c>
+      <c r="E114">
+        <v>6.7740740740740704E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B115">
+        <v>7.0312500000000002E-3</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>1.97814814814814E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B116">
+        <v>7.0791666666666598E-3</v>
+      </c>
+      <c r="C116">
+        <v>3.15E-3</v>
+      </c>
+      <c r="D116">
+        <v>7.7913580246913496E-3</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>7.5271604938271603E-3</v>
+      </c>
+      <c r="E117">
+        <v>6.5086419753086402E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B118">
+        <v>6.9229166666666597E-3</v>
+      </c>
+      <c r="C118">
+        <v>9.6270833333333295E-3</v>
+      </c>
+      <c r="D118">
+        <v>7.4123456790123401E-3</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B119">
+        <v>7.0187499999999998E-3</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>7.4876543209876504E-3</v>
+      </c>
+      <c r="E119">
+        <v>1.89666666666666E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <v>6.8958333333333302E-3</v>
+      </c>
+      <c r="C120">
+        <v>3.5125E-3</v>
+      </c>
+      <c r="D120">
+        <v>7.07654320987654E-3</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B121">
+        <v>6.7749999999999998E-3</v>
+      </c>
+      <c r="C121">
+        <v>1.01125E-2</v>
+      </c>
+      <c r="D121">
+        <v>7.2777777777777702E-3</v>
+      </c>
+      <c r="E121">
+        <v>6.2580246913580204E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B122">
+        <v>6.7666666666666604E-3</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B123">
+        <v>6.84166666666666E-3</v>
+      </c>
+      <c r="C123">
+        <v>3.3562499999999999E-3</v>
+      </c>
+      <c r="D123">
+        <v>6.9617283950617198E-3</v>
+      </c>
+      <c r="E123">
+        <v>1.74320987654321E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B124">
+        <v>6.6958333333333297E-3</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>7.0679012345679004E-3</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>1.015625E-2</v>
+      </c>
+      <c r="D125">
+        <v>6.7567901234567903E-3</v>
+      </c>
+      <c r="E125">
+        <v>5.59259259259259E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <v>6.5125000000000001E-3</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>6.75061728395061E-3</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <v>6.1354166666666597E-3</v>
+      </c>
+      <c r="C127">
+        <v>3.21041666666666E-3</v>
+      </c>
+      <c r="D127">
+        <v>6.6617283950617199E-3</v>
+      </c>
+      <c r="E127">
+        <v>1.6254320987654301E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <v>6.5291666666666597E-3</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>6.78395061728395E-3</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <v>6.1250000000000002E-3</v>
+      </c>
+      <c r="C129">
+        <v>9.0187500000000007E-3</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>5.2493827160493799E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <v>5.6791666666666596E-3</v>
+      </c>
+      <c r="C130">
+        <v>2.4041666666666599E-3</v>
+      </c>
+      <c r="D130">
+        <v>6.4913580246913497E-3</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <v>5.8041666666666597E-3</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>6.6506172839506097E-3</v>
+      </c>
+      <c r="E131">
+        <v>1.51395061728395E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <v>5.4520833333333296E-3</v>
+      </c>
+      <c r="C132">
+        <v>6.61458333333333E-3</v>
+      </c>
+      <c r="D132">
+        <v>6.4839506172839501E-3</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>6.4938271604938202E-3</v>
+      </c>
+      <c r="E133">
+        <v>4.7469135802469097E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <v>5.4916666666666603E-3</v>
+      </c>
+      <c r="C134">
+        <v>1.8958333333333301E-3</v>
+      </c>
+      <c r="D134">
+        <v>6.5358024691357999E-3</v>
+      </c>
+      <c r="E134">
+        <v>1.3679012345679E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <v>5.3812499999999997E-3</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>6.4592592592592497E-3</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <v>5.2270833333333301E-3</v>
+      </c>
+      <c r="C136">
+        <v>5.0041666666666602E-3</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>4.4123456790123401E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <v>5.0625000000000002E-3</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>6.5913580246913499E-3</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <v>4.8666666666666598E-3</v>
+      </c>
+      <c r="C138">
+        <v>1.70416666666666E-3</v>
+      </c>
+      <c r="D138">
+        <v>6.5197530864197504E-3</v>
+      </c>
+      <c r="E138">
+        <v>1.2549382716049299E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <v>4.8354166666666597E-3</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>6.5111111111111099E-3</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <v>4.6229166666666597E-3</v>
+      </c>
+      <c r="C140">
+        <v>4.7749999999999997E-3</v>
+      </c>
+      <c r="D140">
+        <v>6.5432098765432099E-3</v>
+      </c>
+      <c r="E140">
+        <v>4.0160493827160497E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>1.4333333333333301E-3</v>
+      </c>
+      <c r="D141">
+        <v>6.6469135802469104E-3</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <v>4.6062500000000001E-3</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>6.52098765432098E-3</v>
+      </c>
+      <c r="E142">
+        <v>1.17246913580246E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <v>4.3583333333333304E-3</v>
+      </c>
+      <c r="C143">
+        <v>4.6416666666666603E-3</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <v>4.3354166666666602E-3</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>6.5123456790123404E-3</v>
+      </c>
+      <c r="E144">
+        <v>3.7975308641975299E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <v>4.46458333333333E-3</v>
+      </c>
+      <c r="C145">
+        <v>1.55833333333333E-3</v>
+      </c>
+      <c r="D145">
+        <v>6.6148148148148104E-3</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <v>4.0645833333333298E-3</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>6.6592592592592502E-3</v>
+      </c>
+      <c r="E146">
+        <v>1.08432098765432E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <v>4.1583333333333299E-3</v>
+      </c>
+      <c r="C147">
+        <v>4.4749999999999998E-3</v>
+      </c>
+      <c r="D147">
+        <v>6.4061728395061702E-3</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>6.4395061728394999E-3</v>
+      </c>
+      <c r="E148">
+        <v>3.3382716049382699E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <v>4.1437499999999999E-3</v>
+      </c>
+      <c r="C149">
+        <v>1.43958333333333E-3</v>
+      </c>
+      <c r="D149">
+        <v>6.6530864197530803E-3</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <v>3.9687500000000001E-3</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>9.7382716049382693E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <v>3.69375E-3</v>
+      </c>
+      <c r="C151">
+        <v>4.2604166666666598E-3</v>
+      </c>
+      <c r="D151">
+        <v>6.5827160493827103E-3</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <v>3.8395833333333298E-3</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>6.4530864197530798E-3</v>
+      </c>
+      <c r="E152">
+        <v>3.08641975308641E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <v>3.8333333333333301E-3</v>
+      </c>
+      <c r="C153">
+        <v>1.3208333333333299E-3</v>
+      </c>
+      <c r="D153">
+        <v>6.6308641975308599E-3</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <v>3.6229166666666601E-3</v>
+      </c>
+      <c r="C154">
+        <v>4.1374999999999997E-3</v>
+      </c>
+      <c r="D154">
+        <v>6.5061728395061696E-3</v>
+      </c>
+      <c r="E154">
+        <v>8.8580246913580202E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <v>3.6749999999999999E-3</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>6.5666666666666599E-3</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>1.2770833333333299E-3</v>
+      </c>
+      <c r="D156">
+        <v>6.4345679012345596E-3</v>
+      </c>
+      <c r="E156">
+        <v>2.7197530864197499E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <v>3.6354166666666601E-3</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <v>3.5374999999999998E-3</v>
+      </c>
+      <c r="C158">
+        <v>3.7374999999999999E-3</v>
+      </c>
+      <c r="D158">
+        <v>6.4938271604938202E-3</v>
+      </c>
+      <c r="E158">
+        <v>7.9691358024691298E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <v>3.49791666666666E-3</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>6.3259259259259197E-3</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C160">
+        <v>1.17916666666666E-3</v>
+      </c>
+      <c r="D160">
+        <v>6.4753086419753001E-3</v>
+      </c>
+      <c r="E160">
+        <v>2.4234567901234498E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <v>3.48125E-3</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>6.4407407407407399E-3</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <v>3.46666666666666E-3</v>
+      </c>
+      <c r="C162">
+        <v>3.3583333333333299E-3</v>
+      </c>
+      <c r="D162">
+        <v>6.2135802469135797E-3</v>
+      </c>
+      <c r="E162">
+        <v>6.82222222222222E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <v>3.3416666666666599E-3</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>6.2567901234567899E-3</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>1.0937500000000001E-3</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>2.1012345679012299E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <v>3.3687500000000002E-3</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>6.2123456790123396E-3</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B166">
+        <v>3.2833333333333299E-3</v>
+      </c>
+      <c r="C166">
+        <v>2.7416666666666601E-3</v>
+      </c>
+      <c r="D166">
+        <v>6.1901234567901201E-3</v>
+      </c>
+      <c r="E166">
+        <v>5.84691358024691E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B167">
+        <v>3.2604166666666602E-3</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>6.4148148148148098E-3</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B168">
+        <v>3.1895833333333299E-3</v>
+      </c>
+      <c r="C168">
+        <v>9.1874999999999997E-4</v>
+      </c>
+      <c r="D168">
+        <v>6.1790123456790099E-3</v>
+      </c>
+      <c r="E168">
+        <v>1.8185185185185099E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B169">
+        <v>3.10416666666666E-3</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>6.1617283950617203E-3</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B170">
+        <v>3.11666666666666E-3</v>
+      </c>
+      <c r="C170">
+        <v>2.6416666666666598E-3</v>
+      </c>
+      <c r="D170">
+        <v>6.0876543209876502E-3</v>
+      </c>
+      <c r="E170">
+        <v>4.9901234567901196E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B172">
+        <v>3.1375000000000001E-3</v>
+      </c>
+      <c r="C172">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="D172">
+        <v>5.8555555555555496E-3</v>
+      </c>
+      <c r="E172">
+        <v>1.55925925925925E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B173">
+        <v>3.1770833333333299E-3</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>5.8382716049382704E-3</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B174">
+        <v>3.1874999999999998E-3</v>
+      </c>
+      <c r="C174">
+        <v>2.1270833333333298E-3</v>
+      </c>
+      <c r="D174">
+        <v>5.5728395061728298E-3</v>
+      </c>
+      <c r="E174">
+        <v>4.2333333333333303E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B175">
+        <v>3.14791666666666E-3</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>5.58518518518518E-3</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B176">
+        <v>3.07291666666666E-3</v>
+      </c>
+      <c r="C176">
+        <v>7.0208333333333299E-4</v>
+      </c>
+      <c r="D176">
+        <v>5.5246913580246897E-3</v>
+      </c>
+      <c r="E176">
+        <v>1.35925925925925E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B177">
+        <v>2.8583333333333299E-3</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>5.3172839506172801E-3</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B178">
+        <v>2.7770833333333302E-3</v>
+      </c>
+      <c r="C178">
+        <v>1.68125E-3</v>
+      </c>
+      <c r="D178">
+        <v>5.1913580246913497E-3</v>
+      </c>
+      <c r="E178">
+        <v>3.53827160493827E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="1">
         <v>177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="1">
         <v>178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B180">
+        <v>2.9104166666666601E-3</v>
+      </c>
+      <c r="C180">
+        <v>5.375E-4</v>
+      </c>
+      <c r="D180">
+        <v>5.0185185185185098E-3</v>
+      </c>
+      <c r="E180">
+        <v>1.0617283950617199E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B181">
+        <v>2.89166666666666E-3</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>4.8728395061728297E-3</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B182">
+        <v>2.8666666666666602E-3</v>
+      </c>
+      <c r="C182">
+        <v>1.30208333333333E-3</v>
+      </c>
+      <c r="D182">
+        <v>4.7012345679012298E-3</v>
+      </c>
+      <c r="E182">
+        <v>3.0395061728395001E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="1">
         <v>181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B183">
+        <v>2.8062500000000002E-3</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>4.6382716049382699E-3</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="1">
         <v>182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B184">
+        <v>2.8520833333333302E-3</v>
+      </c>
+      <c r="C184">
+        <v>3.7500000000000001E-4</v>
+      </c>
+      <c r="D184">
+        <v>4.2950617283950597E-3</v>
+      </c>
+      <c r="E184">
+        <v>8.9012345679012302E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="1">
         <v>183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B185">
+        <v>2.7041666666666598E-3</v>
+      </c>
+      <c r="C185">
+        <v>1.0541666666666601E-3</v>
+      </c>
+      <c r="D185">
+        <v>4.1382716049382703E-3</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="1">
         <v>184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B186">
+        <v>2.6895833333333299E-3</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>2.4456790123456701E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="1">
         <v>185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B187">
+        <v>0</v>
+      </c>
+      <c r="C187">
+        <v>2.9583333333333301E-4</v>
+      </c>
+      <c r="D187">
+        <v>4.0493827160493802E-3</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B188">
+        <v>2.7687499999999999E-3</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>3.90246913580246E-3</v>
+      </c>
+      <c r="E188">
+        <v>6.8024691358024695E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B189">
+        <v>2.7020833333333302E-3</v>
+      </c>
+      <c r="C189">
+        <v>8.0208333333333303E-4</v>
+      </c>
+      <c r="D189">
+        <v>3.7086419753086402E-3</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B190">
+        <v>2.6083333333333301E-3</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>3.4888888888888799E-3</v>
+      </c>
+      <c r="E190">
+        <v>1.9074074074074E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="1">
         <v>189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B191">
+        <v>2.63333333333333E-3</v>
+      </c>
+      <c r="C191">
+        <v>2.4166666666666599E-4</v>
+      </c>
+      <c r="D191">
+        <v>3.3259259259259201E-3</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="1">
         <v>190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B192">
+        <v>2.58958333333333E-3</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>3.14938271604938E-3</v>
+      </c>
+      <c r="E192">
+        <v>5.3703703703703704E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="1">
         <v>191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B193">
+        <v>2.4750000000000002E-3</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="1">
         <v>192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B194">
+        <v>2.49791666666666E-3</v>
+      </c>
+      <c r="C194">
+        <v>5.6249999999999996E-4</v>
+      </c>
+      <c r="D194">
+        <v>2.9716049382715998E-3</v>
+      </c>
+      <c r="E194">
+        <v>1.4962962962962901E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="1">
         <v>193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>2.84814814814814E-3</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="1">
         <v>194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B196">
+        <v>2.64791666666666E-3</v>
+      </c>
+      <c r="C196">
+        <v>1.41666666666666E-4</v>
+      </c>
+      <c r="D196">
+        <v>2.7419753086419698E-3</v>
+      </c>
+      <c r="E196">
+        <v>4.22222222222222E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="1">
         <v>195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B197">
+        <v>2.6208333333333301E-3</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>2.5259259259259202E-3</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="1">
         <v>196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B198">
+        <v>2.6270833333333298E-3</v>
+      </c>
+      <c r="C198">
+        <v>3.8749999999999999E-4</v>
+      </c>
+      <c r="D198">
+        <v>2.2987654320987599E-3</v>
+      </c>
+      <c r="E198">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B199">
+        <v>2.5374999999999998E-3</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>2.3024691358024601E-3</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="1">
         <v>198</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B200">
+        <v>2.7791666666666598E-3</v>
+      </c>
+      <c r="C200">
+        <v>1E-4</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>3.18518518518518E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="1">
         <v>199</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B201">
+        <v>2.5979166666666598E-3</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>2.1135802469135802E-3</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A202" s="1">
         <v>200</v>
       </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B202">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>2.7708333333333301E-4</v>
+      </c>
+      <c r="D202">
+        <v>2.0271604938271598E-3</v>
+      </c>
+      <c r="E202">
+        <v>8.5308641975308599E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A203" s="1">
         <v>201</v>
       </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B203">
+        <v>2.7479166666666598E-3</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>1.92839506172839E-3</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A204" s="1">
         <v>202</v>
       </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B204">
+        <v>2.7291666666666601E-3</v>
+      </c>
+      <c r="C204" s="4">
+        <v>8.7499999999999999E-5</v>
+      </c>
+      <c r="D204">
+        <v>1.7271604938271601E-3</v>
+      </c>
+      <c r="E204">
+        <v>2.3456790123456699E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A205" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B205">
+        <v>2.73958333333333E-3</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>1.6444444444444399E-3</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A206" s="1">
         <v>204</v>
       </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B206">
+        <v>3.0395833333333299E-3</v>
+      </c>
+      <c r="C206">
+        <v>2.0625E-4</v>
+      </c>
+      <c r="D206">
+        <v>1.6839506172839499E-3</v>
+      </c>
+      <c r="E206">
+        <v>6.7530864197530799E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A207" s="1">
         <v>205</v>
       </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B207">
+        <v>2.9187499999999999E-3</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A208" s="1">
         <v>206</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B208">
+        <v>2.9145833333333298E-3</v>
+      </c>
+      <c r="C208" s="4">
+        <v>7.9166666666666594E-5</v>
+      </c>
+      <c r="D208">
+        <v>1.5283950617283901E-3</v>
+      </c>
+      <c r="E208">
+        <v>1.9506172839506099E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A209" s="1">
         <v>207</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B209">
+        <v>2.84583333333333E-3</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>1.2938271604938201E-3</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A210" s="1">
         <v>208</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>1.3124999999999999E-4</v>
+      </c>
+      <c r="D210">
+        <v>1.2506172839506101E-3</v>
+      </c>
+      <c r="E210">
+        <v>4.5679012345678998E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A211" s="1">
         <v>209</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B211">
+        <v>2.9541666666666601E-3</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1.0925925925925901E-3</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A212" s="1">
         <v>210</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B212">
+        <v>3.0104166666666599E-3</v>
+      </c>
+      <c r="C212" s="4">
+        <v>6.0416666666666599E-5</v>
+      </c>
+      <c r="D212">
+        <v>1.0259259259259199E-3</v>
+      </c>
+      <c r="E212">
+        <v>1.2345679012345601E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A213" s="1">
         <v>211</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B213">
+        <v>3.11875E-3</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>1.0259259259259199E-3</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A214" s="1">
         <v>212</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B214">
+        <v>2.9583333333333302E-3</v>
+      </c>
+      <c r="C214" s="4">
+        <v>8.1249999999999996E-5</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>3.2222222222222201E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A215" s="1">
         <v>213</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B215">
+        <v>3.0020833333333301E-3</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>8.8641975308641902E-4</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A216" s="1">
         <v>214</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B216">
+        <v>3.1124999999999998E-3</v>
+      </c>
+      <c r="C216" s="4">
+        <v>1.04166666666666E-5</v>
+      </c>
+      <c r="D216">
+        <v>8.1234567901234496E-4</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A217" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B217">
+        <v>2.8791666666666601E-3</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>7.6666666666666604E-4</v>
+      </c>
+      <c r="E217" s="4">
+        <v>8.6419753086419695E-5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A218" s="1">
         <v>216</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B218">
+        <v>0</v>
+      </c>
+      <c r="C218" s="4">
+        <v>6.2500000000000001E-5</v>
+      </c>
+      <c r="D218">
+        <v>6.6790123456790095E-4</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A219" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B219">
+        <v>3.0520833333333298E-3</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>6.3950617283950603E-4</v>
+      </c>
+      <c r="E219">
+        <v>2.20987654320987E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A220" s="1">
         <v>218</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B220">
+        <v>2.6416666666666598E-3</v>
+      </c>
+      <c r="C220" s="4">
+        <v>2.0833333333333299E-5</v>
+      </c>
+      <c r="D220">
+        <v>5.93827160493827E-4</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A221" s="1">
         <v>219</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B221">
+        <v>2.5708333333333299E-3</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" s="4">
+        <v>5.1851851851851802E-5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A222" s="1">
         <v>220</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B222">
+        <v>2.7354166666666599E-3</v>
+      </c>
+      <c r="C222" s="4">
+        <v>4.79166666666666E-5</v>
+      </c>
+      <c r="D222">
+        <v>4.7283950617283901E-4</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A223" s="1">
         <v>221</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B223">
+        <v>2.5020833333333301E-3</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>4.7283950617283901E-4</v>
+      </c>
+      <c r="E223">
+        <v>1.2716049382716001E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A224" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B224">
+        <v>2.4437500000000002E-3</v>
+      </c>
+      <c r="C224" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="D224">
+        <v>4.4444444444444398E-4</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A225" s="1">
         <v>223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B225">
+        <v>2.1624999999999999E-3</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>3.6543209876543198E-4</v>
+      </c>
+      <c r="E225" s="4">
+        <v>3.5802469135802397E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A226" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226" s="4">
+        <v>1.4583333333333299E-5</v>
+      </c>
+      <c r="D226">
+        <v>3.2839506172839501E-4</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A227" s="1">
         <v>225</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B227">
+        <v>1.89166666666666E-3</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>2.6419753086419698E-4</v>
+      </c>
+      <c r="E227">
+        <v>1.22222222222222E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A228" s="1">
         <v>226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B228">
+        <v>2.075E-3</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A229" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B229">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C229" s="4">
+        <v>1.04166666666666E-5</v>
+      </c>
+      <c r="D229">
+        <v>2.7407407407407399E-4</v>
+      </c>
+      <c r="E229" s="4">
+        <v>3.5802469135802397E-5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A230" s="1">
         <v>228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B230">
+        <v>1.6479166666666599E-3</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>2.3827160493827099E-4</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A231" s="1">
         <v>229</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B231">
+        <v>1.4854166666666601E-3</v>
+      </c>
+      <c r="C231" s="4">
+        <v>1.8749999999999998E-5</v>
+      </c>
+      <c r="D231">
+        <v>1.8395061728395E-4</v>
+      </c>
+      <c r="E231" s="4">
+        <v>5.1851851851851802E-5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A232" s="1">
         <v>230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B232">
+        <v>1.2145833333333301E-3</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1.92592592592592E-4</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A233" s="1">
         <v>231</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233" s="4">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="D233">
+        <v>1.2469135802469099E-4</v>
+      </c>
+      <c r="E233" s="4">
+        <v>1.23456790123456E-5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A234" s="1">
         <v>232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B234">
+        <v>1.1479166666666599E-3</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>1.3333333333333299E-4</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A235" s="1">
         <v>233</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B235">
+        <v>1.07291666666666E-3</v>
+      </c>
+      <c r="C235" s="4">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" s="4">
+        <v>3.8271604938271602E-5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A236" s="1">
         <v>234</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B236">
+        <v>9.7708333333333306E-4</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236" s="4">
+        <v>9.3827160493827099E-5</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A237" s="1">
         <v>235</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B237">
+        <v>8.3958333333333302E-4</v>
+      </c>
+      <c r="C237" s="4">
+        <v>4.1666666666666601E-6</v>
+      </c>
+      <c r="D237" s="4">
+        <v>9.0123456790123404E-5</v>
+      </c>
+      <c r="E237" s="4">
+        <v>4.93827160493827E-6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A238" s="1">
         <v>236</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B238">
+        <v>7.3125000000000002E-4</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="D238" s="4">
+        <v>7.0370370370370297E-5</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A239" s="1">
         <v>237</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B239">
+        <v>4.8333333333333301E-4</v>
+      </c>
+      <c r="C239" s="4">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="D239" s="4">
+        <v>7.5308641975308597E-5</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A240" s="1">
         <v>238</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B240">
+        <v>4.3541666666666598E-4</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="D240" s="4">
+        <v>5.1851851851851802E-5</v>
+      </c>
+      <c r="E240" s="4">
+        <v>3.3333333333333301E-5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A241" s="1">
         <v>239</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241" s="4">
+        <v>4.0740740740740698E-5</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A242" s="1">
         <v>240</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B242">
+        <v>4.2708333333333303E-4</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" s="4">
+        <v>1.2345679012345601E-6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A243" s="1">
         <v>241</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B243">
+        <v>2.7291666666666599E-4</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243" s="4">
+        <v>2.8395061728395001E-5</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A244" s="1">
         <v>242</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B244">
+        <v>1.6666666666666601E-4</v>
+      </c>
+      <c r="C244" s="4">
+        <v>4.1666666666666601E-6</v>
+      </c>
+      <c r="D244" s="4">
+        <v>2.7160493827160398E-5</v>
+      </c>
+      <c r="E244" s="4">
+        <v>1.11111111111111E-5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A245" s="1">
         <v>243</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B245">
+        <v>1.9166666666666599E-4</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245" s="4">
+        <v>1.7283950617283899E-5</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A246" s="1">
         <v>244</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B246">
+        <v>1.5625E-4</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246" s="4">
+        <v>2.5925925925925901E-5</v>
+      </c>
+      <c r="E246" s="4">
+        <v>3.7037037037036999E-6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A247" s="1">
         <v>245</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B247">
+        <v>1.1458333333333301E-4</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+      <c r="D247" s="4">
+        <v>8.6419753086419699E-6</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B248" s="4">
+        <v>9.3750000000000002E-5</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248" s="4">
+        <v>9.8765432098765399E-6</v>
+      </c>
+      <c r="E248" s="4">
+        <v>6.1728395061728298E-6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A249" s="1">
         <v>247</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A250" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B250" s="4">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="C250" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="D250" s="4">
+        <v>6.1728395061728298E-6</v>
+      </c>
+      <c r="E250" s="4">
+        <v>3.7037037037036999E-6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A251" s="1">
         <v>249</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B251" s="4">
+        <v>2.9166666666666599E-5</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+      <c r="D251" s="4">
+        <v>2.4691358024691299E-6</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A252" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B252" s="4">
+        <v>2.7083333333333302E-5</v>
+      </c>
+      <c r="C252" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="D252" s="4">
+        <v>2.4691358024691299E-6</v>
+      </c>
+      <c r="E252" s="4">
+        <v>6.1728395061728298E-6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A253" s="1">
         <v>251</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B253" s="4">
+        <v>3.5416666666666601E-5</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+      <c r="D253" s="4">
+        <v>1.2345679012345601E-6</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A254" s="1">
         <v>252</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B254" s="4">
+        <v>1.4583333333333299E-5</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+      <c r="D254" s="4">
+        <v>4.93827160493827E-6</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A255" s="1">
         <v>253</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B255" s="4">
+        <v>1.04166666666666E-5</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255" s="4">
+        <v>1.2345679012345601E-6</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A256" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B256">
+        <v>0</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A257" s="1">
         <v>255</v>
+      </c>
+      <c r="B257" s="4">
+        <v>4.1666666666666601E-6</v>
+      </c>
+      <c r="C257" s="4">
+        <v>2.08333333333333E-6</v>
+      </c>
+      <c r="D257" s="4">
+        <v>1.2345679012345601E-6</v>
+      </c>
+      <c r="E257" s="4">
+        <v>1.2345679012345601E-6</v>
       </c>
     </row>
   </sheetData>
